--- a/assets/pointListCX2.xlsx
+++ b/assets/pointListCX2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8150C-133E-4E33-867C-B591AA238D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54F932C-F405-496F-8BBD-5ADE374C1DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,6 +1048,12 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F2F584C-06F2-4A0E-A62F-B2AEF688CF19}" name="Table2" displayName="Table2" ref="A1:I3422" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:I3422" xr:uid="{564BF202-DCB5-40EA-ACBD-570AA903FF85}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Hanson\CX2\RTU1S"/>
+        <filter val="Hanson\CX2\RTU2S"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <filters>
         <filter val="TRUE"/>
@@ -1068,7 +1074,7 @@
     <tableColumn id="8" xr3:uid="{4211A686-EE2D-4680-895A-1E4AF15B7A30}" name="BAUD"/>
     <tableColumn id="9" xr3:uid="{09B2507B-5F0B-44ED-8208-59774009EE86}" name="USE TRUE/FALSE"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1359,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182:C3106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5502,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>86</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>87</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>355</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>356</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>357</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>358</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>444</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>445</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>446</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>447</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>448</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>533</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>534</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>535</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>536</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>627</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>628</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>629</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>630</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>631</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>632</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>723</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>724</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>725</v>
       </c>
@@ -6261,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>726</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>813</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>814</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>815</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>816</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>817</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>909</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>910</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>911</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>912</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>913</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1003</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1004</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1005</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1006</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1007</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1093</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1094</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1095</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1096</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1182</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1183</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1184</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1185</v>
       </c>
@@ -6813,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1271</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1272</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1273</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1274</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1360</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1361</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1362</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1363</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1455</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1456</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1457</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1458</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1459</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1538</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1539</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1540</v>
       </c>
@@ -7181,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1541</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1628</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1629</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1630</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1631</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1717</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1718</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1719</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1720</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1806</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1807</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1808</v>
       </c>
@@ -7457,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1809</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1895</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1896</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1897</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1898</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1984</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1985</v>
       </c>
@@ -7618,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1986</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1987</v>
       </c>
@@ -7664,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2072</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2073</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2074</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2075</v>
       </c>
@@ -7756,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2166</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2167</v>
       </c>
@@ -7802,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2168</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2258</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2259</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2260</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2261</v>
       </c>
@@ -7917,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2353</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2354</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2355</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2356</v>
       </c>
@@ -8009,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2357</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2446</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2447</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2448</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2449</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2541</v>
       </c>
@@ -8147,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2542</v>
       </c>
@@ -8170,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2543</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2544</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2545</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2634</v>
       </c>
@@ -8262,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2635</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2636</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2637</v>
       </c>
@@ -8331,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2722</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2723</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2724</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2725</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2816</v>
       </c>
@@ -8446,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2817</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2818</v>
       </c>
@@ -8492,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2819</v>
       </c>
@@ -8515,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2820</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2914</v>
       </c>
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2915</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2916</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2917</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2918</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2919</v>
       </c>
@@ -8676,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>3008</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>3009</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>3010</v>
       </c>
@@ -8745,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>3011</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>3097</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>3098</v>
       </c>
@@ -8814,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>3099</v>
       </c>
@@ -8837,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>3100</v>
       </c>
@@ -8860,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>3185</v>
       </c>
@@ -8883,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>3186</v>
       </c>
@@ -8906,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>3187</v>
       </c>
@@ -8929,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>3188</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>3189</v>
       </c>
@@ -8975,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>3274</v>
       </c>
@@ -8998,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>3275</v>
       </c>
@@ -9021,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>3276</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>3277</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>3365</v>
       </c>
@@ -9090,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>3366</v>
       </c>
@@ -9113,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>3367</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>3368</v>
       </c>
@@ -9159,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>3369</v>
       </c>
@@ -9182,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>320</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>408</v>
       </c>
@@ -9228,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>498</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>588</v>
       </c>
@@ -9274,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>687</v>
       </c>
@@ -9297,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>776</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>870</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>967</v>
       </c>
@@ -9366,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1057</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1146</v>
       </c>
@@ -9412,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1235</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1324</v>
       </c>
@@ -9458,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1415</v>
       </c>
@@ -9481,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1512</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1592</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1681</v>
       </c>
@@ -9550,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1770</v>
       </c>
@@ -9573,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1859</v>
       </c>
@@ -9596,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1948</v>
       </c>
@@ -9619,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2037</v>
       </c>
@@ -9642,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2127</v>
       </c>
@@ -9665,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2222</v>
       </c>
@@ -9688,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2313</v>
       </c>
@@ -9711,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>2411</v>
       </c>
@@ -9734,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2501</v>
       </c>
@@ -9757,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2599</v>
       </c>
@@ -9780,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2687</v>
       </c>
@@ -9803,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2777</v>
       </c>
@@ -9826,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2875</v>
       </c>
@@ -9849,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2973</v>
       </c>
@@ -9872,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>3062</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>3150</v>
       </c>
@@ -9918,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>3239</v>
       </c>
@@ -9941,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>3327</v>
       </c>
@@ -9964,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>321</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>409</v>
       </c>
@@ -10010,7 +10016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>499</v>
       </c>
@@ -10033,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>589</v>
       </c>
@@ -10056,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>688</v>
       </c>
@@ -10079,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>777</v>
       </c>
@@ -10102,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>871</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>968</v>
       </c>
@@ -10148,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>1058</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1147</v>
       </c>
@@ -10194,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>1236</v>
       </c>
@@ -10217,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1325</v>
       </c>
@@ -10240,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>1416</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1593</v>
       </c>
@@ -10286,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1682</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1771</v>
       </c>
@@ -10332,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>1860</v>
       </c>
@@ -10355,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>1949</v>
       </c>
@@ -10378,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>2038</v>
       </c>
@@ -10401,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>2128</v>
       </c>
@@ -10424,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>2223</v>
       </c>
@@ -10447,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2314</v>
       </c>
@@ -10470,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2412</v>
       </c>
@@ -10493,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>2502</v>
       </c>
@@ -10516,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2600</v>
       </c>
@@ -10539,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>2688</v>
       </c>
@@ -10562,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2778</v>
       </c>
@@ -10585,7 +10591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>2876</v>
       </c>
@@ -10608,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>2974</v>
       </c>
@@ -10631,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>3063</v>
       </c>
@@ -10654,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>3151</v>
       </c>
@@ -10677,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>3240</v>
       </c>
@@ -10700,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>3328</v>
       </c>
@@ -10815,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>322</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -10861,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>500</v>
       </c>
@@ -10884,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>590</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>689</v>
       </c>
@@ -10930,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>778</v>
       </c>
@@ -10953,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>872</v>
       </c>
@@ -10976,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>969</v>
       </c>
@@ -10999,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1059</v>
       </c>
@@ -11022,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1148</v>
       </c>
@@ -11045,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>1237</v>
       </c>
@@ -11068,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1326</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1417</v>
       </c>
@@ -11114,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>1513</v>
       </c>
@@ -11137,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>1594</v>
       </c>
@@ -11160,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>1683</v>
       </c>
@@ -11183,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1772</v>
       </c>
@@ -11206,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>1861</v>
       </c>
@@ -11229,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>1950</v>
       </c>
@@ -11252,7 +11258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>2039</v>
       </c>
@@ -11275,7 +11281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>2129</v>
       </c>
@@ -11298,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>2224</v>
       </c>
@@ -11321,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>2315</v>
       </c>
@@ -11344,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>2413</v>
       </c>
@@ -11367,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>2503</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>2601</v>
       </c>
@@ -11413,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>2689</v>
       </c>
@@ -11436,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>2779</v>
       </c>
@@ -11459,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>2877</v>
       </c>
@@ -11482,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>2975</v>
       </c>
@@ -11505,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>3064</v>
       </c>
@@ -11528,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>3152</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>3241</v>
       </c>
@@ -11574,7 +11580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>3329</v>
       </c>
@@ -11620,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>323</v>
       </c>
@@ -11643,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>411</v>
       </c>
@@ -11666,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>501</v>
       </c>
@@ -11689,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>591</v>
       </c>
@@ -11712,7 +11718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>690</v>
       </c>
@@ -11735,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>779</v>
       </c>
@@ -11758,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>873</v>
       </c>
@@ -11781,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>970</v>
       </c>
@@ -11804,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>1060</v>
       </c>
@@ -11827,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>1149</v>
       </c>
@@ -11850,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>1238</v>
       </c>
@@ -11873,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1327</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1418</v>
       </c>
@@ -11919,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>1515</v>
       </c>
@@ -11942,7 +11948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>1595</v>
       </c>
@@ -11965,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>1684</v>
       </c>
@@ -11988,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>1773</v>
       </c>
@@ -12011,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>1862</v>
       </c>
@@ -12034,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>1951</v>
       </c>
@@ -12057,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>2040</v>
       </c>
@@ -12080,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>2130</v>
       </c>
@@ -12103,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>2225</v>
       </c>
@@ -12126,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>2316</v>
       </c>
@@ -12149,7 +12155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>2414</v>
       </c>
@@ -12172,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>2504</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>2602</v>
       </c>
@@ -12218,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>2690</v>
       </c>
@@ -12241,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>2780</v>
       </c>
@@ -12264,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>2878</v>
       </c>
@@ -12287,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>2976</v>
       </c>
@@ -12310,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>3065</v>
       </c>
@@ -12333,7 +12339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>3153</v>
       </c>
@@ -12356,7 +12362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>3242</v>
       </c>
@@ -12379,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>3330</v>
       </c>
@@ -12402,7 +12408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>324</v>
       </c>
@@ -12425,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>412</v>
       </c>
@@ -12448,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>502</v>
       </c>
@@ -12471,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>592</v>
       </c>
@@ -12494,7 +12500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>691</v>
       </c>
@@ -12517,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>780</v>
       </c>
@@ -12540,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>874</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>971</v>
       </c>
@@ -12586,7 +12592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>1061</v>
       </c>
@@ -12609,7 +12615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>1150</v>
       </c>
@@ -12632,7 +12638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>1239</v>
       </c>
@@ -12655,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>1328</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>1419</v>
       </c>
@@ -12701,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>1516</v>
       </c>
@@ -12724,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>1596</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>1685</v>
       </c>
@@ -12770,7 +12776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>1774</v>
       </c>
@@ -12793,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>1863</v>
       </c>
@@ -12816,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>1952</v>
       </c>
@@ -12839,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>2041</v>
       </c>
@@ -12862,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>2131</v>
       </c>
@@ -12885,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>2226</v>
       </c>
@@ -12908,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>2317</v>
       </c>
@@ -12931,7 +12937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>2415</v>
       </c>
@@ -12954,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>2505</v>
       </c>
@@ -12977,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>2603</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>2691</v>
       </c>
@@ -13023,7 +13029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>2781</v>
       </c>
@@ -13046,7 +13052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>2879</v>
       </c>
@@ -13069,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>2977</v>
       </c>
@@ -13092,7 +13098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>3066</v>
       </c>
@@ -13115,7 +13121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>3154</v>
       </c>
@@ -13138,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>3243</v>
       </c>
@@ -13161,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>3331</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>325</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>413</v>
       </c>
@@ -13230,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>503</v>
       </c>
@@ -13253,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>593</v>
       </c>
@@ -13276,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>692</v>
       </c>
@@ -13299,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>781</v>
       </c>
@@ -13322,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>875</v>
       </c>
@@ -13345,7 +13351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>972</v>
       </c>
@@ -13368,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>1062</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>1151</v>
       </c>
@@ -13414,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>1240</v>
       </c>
@@ -13437,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>1329</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>1420</v>
       </c>
@@ -13483,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>1517</v>
       </c>
@@ -13506,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>1597</v>
       </c>
@@ -13529,7 +13535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>1686</v>
       </c>
@@ -13552,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>1775</v>
       </c>
@@ -13575,7 +13581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>1864</v>
       </c>
@@ -13598,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>1953</v>
       </c>
@@ -13621,7 +13627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>2042</v>
       </c>
@@ -13644,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>2132</v>
       </c>
@@ -13667,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>2227</v>
       </c>
@@ -13690,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>2318</v>
       </c>
@@ -13713,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>2416</v>
       </c>
@@ -13736,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>2506</v>
       </c>
@@ -13759,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>2604</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>2692</v>
       </c>
@@ -13805,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>2782</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>2880</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>2978</v>
       </c>
@@ -13874,7 +13880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>3067</v>
       </c>
@@ -13897,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>3155</v>
       </c>
@@ -13920,7 +13926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>3244</v>
       </c>
@@ -13943,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>3332</v>
       </c>
@@ -14035,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>326</v>
       </c>
@@ -14058,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>414</v>
       </c>
@@ -14081,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>504</v>
       </c>
@@ -14104,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>594</v>
       </c>
@@ -14127,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>693</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>782</v>
       </c>
@@ -14173,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>876</v>
       </c>
@@ -14196,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>973</v>
       </c>
@@ -14219,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>1063</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>1152</v>
       </c>
@@ -14265,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>1241</v>
       </c>
@@ -14288,7 +14294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>1330</v>
       </c>
@@ -14311,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>1421</v>
       </c>
@@ -14334,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>1598</v>
       </c>
@@ -14357,7 +14363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>1687</v>
       </c>
@@ -14380,7 +14386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>1776</v>
       </c>
@@ -14403,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>1865</v>
       </c>
@@ -14426,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>1954</v>
       </c>
@@ -14449,7 +14455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>2043</v>
       </c>
@@ -14472,7 +14478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>2133</v>
       </c>
@@ -14495,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>2228</v>
       </c>
@@ -14518,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>2319</v>
       </c>
@@ -14541,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>2417</v>
       </c>
@@ -14564,7 +14570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>2507</v>
       </c>
@@ -14587,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>2605</v>
       </c>
@@ -14610,7 +14616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>2693</v>
       </c>
@@ -14633,7 +14639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>2783</v>
       </c>
@@ -14656,7 +14662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>2881</v>
       </c>
@@ -14679,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>2979</v>
       </c>
@@ -14702,7 +14708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>3068</v>
       </c>
@@ -14725,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>3156</v>
       </c>
@@ -14748,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>3245</v>
       </c>
@@ -14771,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>3333</v>
       </c>
@@ -18175,7 +18181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>331</v>
       </c>
@@ -18198,7 +18204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>419</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>509</v>
       </c>
@@ -18244,7 +18250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>599</v>
       </c>
@@ -18267,7 +18273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>698</v>
       </c>
@@ -18290,7 +18296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>787</v>
       </c>
@@ -18313,7 +18319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>881</v>
       </c>
@@ -18336,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>978</v>
       </c>
@@ -18359,7 +18365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>1068</v>
       </c>
@@ -18382,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>1157</v>
       </c>
@@ -18405,7 +18411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>1246</v>
       </c>
@@ -18428,7 +18434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>1335</v>
       </c>
@@ -18451,7 +18457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>1426</v>
       </c>
@@ -18474,7 +18480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>1603</v>
       </c>
@@ -18497,7 +18503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>1692</v>
       </c>
@@ -18520,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>1781</v>
       </c>
@@ -18543,7 +18549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>1870</v>
       </c>
@@ -18566,7 +18572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>1959</v>
       </c>
@@ -18589,7 +18595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>2048</v>
       </c>
@@ -18612,7 +18618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>2138</v>
       </c>
@@ -18635,7 +18641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>2233</v>
       </c>
@@ -18658,7 +18664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>2324</v>
       </c>
@@ -18681,7 +18687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>2422</v>
       </c>
@@ -18704,7 +18710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>2512</v>
       </c>
@@ -18727,7 +18733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>2610</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>2698</v>
       </c>
@@ -18773,7 +18779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>2788</v>
       </c>
@@ -18796,7 +18802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>2886</v>
       </c>
@@ -18819,7 +18825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>2984</v>
       </c>
@@ -18842,7 +18848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>3073</v>
       </c>
@@ -18865,7 +18871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>3161</v>
       </c>
@@ -18888,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>3250</v>
       </c>
@@ -18911,7 +18917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>3339</v>
       </c>
@@ -18934,7 +18940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>332</v>
       </c>
@@ -18957,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>420</v>
       </c>
@@ -18980,7 +18986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>510</v>
       </c>
@@ -19003,7 +19009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>600</v>
       </c>
@@ -19026,7 +19032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>699</v>
       </c>
@@ -19049,7 +19055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>788</v>
       </c>
@@ -19072,7 +19078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>882</v>
       </c>
@@ -19095,7 +19101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>979</v>
       </c>
@@ -19118,7 +19124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>1069</v>
       </c>
@@ -19141,7 +19147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>1158</v>
       </c>
@@ -19164,7 +19170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>1247</v>
       </c>
@@ -19187,7 +19193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>1336</v>
       </c>
@@ -19210,7 +19216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>1427</v>
       </c>
@@ -19233,7 +19239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>1604</v>
       </c>
@@ -19256,7 +19262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>1693</v>
       </c>
@@ -19279,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>1782</v>
       </c>
@@ -19302,7 +19308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>1871</v>
       </c>
@@ -19325,7 +19331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>1960</v>
       </c>
@@ -19348,7 +19354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>2049</v>
       </c>
@@ -19371,7 +19377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>2139</v>
       </c>
@@ -19394,7 +19400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>2234</v>
       </c>
@@ -19417,7 +19423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>2325</v>
       </c>
@@ -19440,7 +19446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>2423</v>
       </c>
@@ -19463,7 +19469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>2513</v>
       </c>
@@ -19486,7 +19492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>2611</v>
       </c>
@@ -19509,7 +19515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>2699</v>
       </c>
@@ -19532,7 +19538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>2789</v>
       </c>
@@ -19555,7 +19561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>2887</v>
       </c>
@@ -19578,7 +19584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>2985</v>
       </c>
@@ -19601,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>3074</v>
       </c>
@@ -19624,7 +19630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>3162</v>
       </c>
@@ -19647,7 +19653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>3251</v>
       </c>
@@ -19670,7 +19676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>3340</v>
       </c>
@@ -21602,7 +21608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>335</v>
       </c>
@@ -21625,7 +21631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>423</v>
       </c>
@@ -21648,7 +21654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>513</v>
       </c>
@@ -21671,7 +21677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>606</v>
       </c>
@@ -21694,7 +21700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>702</v>
       </c>
@@ -21717,7 +21723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>791</v>
       </c>
@@ -21740,7 +21746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>888</v>
       </c>
@@ -21763,7 +21769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>982</v>
       </c>
@@ -21786,7 +21792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>1072</v>
       </c>
@@ -21809,7 +21815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>1161</v>
       </c>
@@ -21832,7 +21838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>1250</v>
       </c>
@@ -21855,7 +21861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>1339</v>
       </c>
@@ -21878,7 +21884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>1433</v>
       </c>
@@ -21901,7 +21907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>1525</v>
       </c>
@@ -21924,7 +21930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>1607</v>
       </c>
@@ -21947,7 +21953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>1696</v>
       </c>
@@ -21970,7 +21976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>1785</v>
       </c>
@@ -21993,7 +21999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>1874</v>
       </c>
@@ -22016,7 +22022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>1963</v>
       </c>
@@ -22039,7 +22045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>2051</v>
       </c>
@@ -22062,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>2144</v>
       </c>
@@ -22085,7 +22091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>2237</v>
       </c>
@@ -22108,7 +22114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>2331</v>
       </c>
@@ -22131,7 +22137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>2425</v>
       </c>
@@ -22154,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>2518</v>
       </c>
@@ -22177,7 +22183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>2613</v>
       </c>
@@ -22200,7 +22206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>2701</v>
       </c>
@@ -22223,7 +22229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>2794</v>
       </c>
@@ -22246,7 +22252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>2892</v>
       </c>
@@ -22269,7 +22275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>2987</v>
       </c>
@@ -22292,7 +22298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>3076</v>
       </c>
@@ -22315,7 +22321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>3164</v>
       </c>
@@ -22338,7 +22344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>3253</v>
       </c>
@@ -22361,7 +22367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>3342</v>
       </c>
@@ -22384,7 +22390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>336</v>
       </c>
@@ -22407,7 +22413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>424</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>514</v>
       </c>
@@ -22453,7 +22459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>607</v>
       </c>
@@ -22476,7 +22482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>703</v>
       </c>
@@ -22499,7 +22505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>792</v>
       </c>
@@ -22522,7 +22528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>889</v>
       </c>
@@ -22545,7 +22551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>983</v>
       </c>
@@ -22568,7 +22574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>1073</v>
       </c>
@@ -22591,7 +22597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>1162</v>
       </c>
@@ -22614,7 +22620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>1251</v>
       </c>
@@ -22637,7 +22643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>1340</v>
       </c>
@@ -22660,7 +22666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>1434</v>
       </c>
@@ -22683,7 +22689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>1526</v>
       </c>
@@ -22706,7 +22712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>1608</v>
       </c>
@@ -22729,7 +22735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>1697</v>
       </c>
@@ -22752,7 +22758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>1786</v>
       </c>
@@ -22775,7 +22781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>1875</v>
       </c>
@@ -22798,7 +22804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>1964</v>
       </c>
@@ -22821,7 +22827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>2052</v>
       </c>
@@ -22844,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>2145</v>
       </c>
@@ -22867,7 +22873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>2238</v>
       </c>
@@ -22890,7 +22896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>2332</v>
       </c>
@@ -22913,7 +22919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>2426</v>
       </c>
@@ -22936,7 +22942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>2519</v>
       </c>
@@ -22959,7 +22965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>2614</v>
       </c>
@@ -22982,7 +22988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>2702</v>
       </c>
@@ -23005,7 +23011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>2795</v>
       </c>
@@ -23028,7 +23034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>2893</v>
       </c>
@@ -23051,7 +23057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>2988</v>
       </c>
@@ -23074,7 +23080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>3077</v>
       </c>
@@ -23097,7 +23103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>3165</v>
       </c>
@@ -23120,7 +23126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>3254</v>
       </c>
@@ -23143,7 +23149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>3343</v>
       </c>
@@ -23166,7 +23172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>2520</v>
       </c>
@@ -23235,7 +23241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>337</v>
       </c>
@@ -23258,7 +23264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>425</v>
       </c>
@@ -23281,7 +23287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>515</v>
       </c>
@@ -23304,7 +23310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>608</v>
       </c>
@@ -23327,7 +23333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>704</v>
       </c>
@@ -23350,7 +23356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>793</v>
       </c>
@@ -23373,7 +23379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>890</v>
       </c>
@@ -23396,7 +23402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>984</v>
       </c>
@@ -23419,7 +23425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>1074</v>
       </c>
@@ -23442,7 +23448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>1163</v>
       </c>
@@ -23465,7 +23471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>1252</v>
       </c>
@@ -23488,7 +23494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>1341</v>
       </c>
@@ -23511,7 +23517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>1435</v>
       </c>
@@ -23534,7 +23540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>1609</v>
       </c>
@@ -23557,7 +23563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>1698</v>
       </c>
@@ -23580,7 +23586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>1787</v>
       </c>
@@ -23603,7 +23609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>1876</v>
       </c>
@@ -23626,7 +23632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>1965</v>
       </c>
@@ -23649,7 +23655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>2053</v>
       </c>
@@ -23672,7 +23678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>2146</v>
       </c>
@@ -23695,7 +23701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>2239</v>
       </c>
@@ -23718,7 +23724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>2333</v>
       </c>
@@ -23741,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>2427</v>
       </c>
@@ -23764,7 +23770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>2521</v>
       </c>
@@ -23787,7 +23793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>2615</v>
       </c>
@@ -23810,7 +23816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>2703</v>
       </c>
@@ -23833,7 +23839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>2796</v>
       </c>
@@ -23856,7 +23862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>2894</v>
       </c>
@@ -23879,7 +23885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>2989</v>
       </c>
@@ -23902,7 +23908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>3078</v>
       </c>
@@ -23925,7 +23931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>3166</v>
       </c>
@@ -23948,7 +23954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>3255</v>
       </c>
@@ -23971,7 +23977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>3344</v>
       </c>
@@ -24868,7 +24874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>339</v>
       </c>
@@ -24891,7 +24897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>427</v>
       </c>
@@ -24914,7 +24920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
         <v>517</v>
       </c>
@@ -24937,7 +24943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
         <v>610</v>
       </c>
@@ -24960,7 +24966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
         <v>706</v>
       </c>
@@ -24983,7 +24989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
         <v>795</v>
       </c>
@@ -25006,7 +25012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
         <v>892</v>
       </c>
@@ -25029,7 +25035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>986</v>
       </c>
@@ -25052,7 +25058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
         <v>1076</v>
       </c>
@@ -25075,7 +25081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1">
         <v>1165</v>
       </c>
@@ -25098,7 +25104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1">
         <v>1254</v>
       </c>
@@ -25121,7 +25127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1">
         <v>1343</v>
       </c>
@@ -25144,7 +25150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1">
         <v>1437</v>
       </c>
@@ -25167,7 +25173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
         <v>1528</v>
       </c>
@@ -25190,7 +25196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1">
         <v>1611</v>
       </c>
@@ -25213,7 +25219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1">
         <v>1700</v>
       </c>
@@ -25236,7 +25242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="1">
         <v>1789</v>
       </c>
@@ -25259,7 +25265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
         <v>1878</v>
       </c>
@@ -25282,7 +25288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="1">
         <v>1967</v>
       </c>
@@ -25305,7 +25311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="1">
         <v>2055</v>
       </c>
@@ -25328,7 +25334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="1">
         <v>2148</v>
       </c>
@@ -25351,7 +25357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1">
         <v>2241</v>
       </c>
@@ -25374,7 +25380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1">
         <v>2335</v>
       </c>
@@ -25397,7 +25403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1">
         <v>2429</v>
       </c>
@@ -25420,7 +25426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
         <v>2523</v>
       </c>
@@ -25443,7 +25449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1">
         <v>2617</v>
       </c>
@@ -25466,7 +25472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1">
         <v>2705</v>
       </c>
@@ -25489,7 +25495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1">
         <v>2798</v>
       </c>
@@ -25512,7 +25518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1">
         <v>2896</v>
       </c>
@@ -25535,7 +25541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
         <v>2991</v>
       </c>
@@ -25558,7 +25564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
         <v>3080</v>
       </c>
@@ -25581,7 +25587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
         <v>3168</v>
       </c>
@@ -25604,7 +25610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
         <v>3257</v>
       </c>
@@ -25627,7 +25633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
         <v>3346</v>
       </c>
@@ -25650,7 +25656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
         <v>340</v>
       </c>
@@ -25673,7 +25679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
         <v>428</v>
       </c>
@@ -25696,7 +25702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
         <v>518</v>
       </c>
@@ -25719,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
         <v>611</v>
       </c>
@@ -25742,7 +25748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
         <v>707</v>
       </c>
@@ -25765,7 +25771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
         <v>796</v>
       </c>
@@ -25788,7 +25794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
         <v>893</v>
       </c>
@@ -25811,7 +25817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
         <v>987</v>
       </c>
@@ -25834,7 +25840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
         <v>1077</v>
       </c>
@@ -25857,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
         <v>1166</v>
       </c>
@@ -25880,7 +25886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
         <v>1255</v>
       </c>
@@ -25903,7 +25909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
         <v>1344</v>
       </c>
@@ -25926,7 +25932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
         <v>1438</v>
       </c>
@@ -25949,7 +25955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="1">
         <v>1529</v>
       </c>
@@ -25972,7 +25978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
         <v>1612</v>
       </c>
@@ -25995,7 +26001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
         <v>1701</v>
       </c>
@@ -26018,7 +26024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="1">
         <v>1790</v>
       </c>
@@ -26041,7 +26047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="1">
         <v>1879</v>
       </c>
@@ -26064,7 +26070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="1">
         <v>1968</v>
       </c>
@@ -26087,7 +26093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
         <v>2056</v>
       </c>
@@ -26110,7 +26116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="1">
         <v>2149</v>
       </c>
@@ -26133,7 +26139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1">
         <v>2242</v>
       </c>
@@ -26156,7 +26162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1">
         <v>2336</v>
       </c>
@@ -26179,7 +26185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1">
         <v>2430</v>
       </c>
@@ -26202,7 +26208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
         <v>2524</v>
       </c>
@@ -26225,7 +26231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
         <v>2618</v>
       </c>
@@ -26248,7 +26254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="1">
         <v>2706</v>
       </c>
@@ -26271,7 +26277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="1">
         <v>2799</v>
       </c>
@@ -26294,7 +26300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
         <v>2897</v>
       </c>
@@ -26317,7 +26323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1">
         <v>2992</v>
       </c>
@@ -26340,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="1">
         <v>3081</v>
       </c>
@@ -26363,7 +26369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
         <v>3169</v>
       </c>
@@ -26386,7 +26392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
         <v>3258</v>
       </c>
@@ -26409,7 +26415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="1">
         <v>3347</v>
       </c>
@@ -29560,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1226" s="1">
         <v>3352</v>
       </c>
@@ -29583,7 +29589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1227" s="1">
         <v>79</v>
       </c>
@@ -33033,7 +33039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1377" s="1">
         <v>83</v>
       </c>
@@ -33056,7 +33062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1378" s="1">
         <v>84</v>
       </c>
@@ -36506,7 +36512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1528" s="1">
         <v>3361</v>
       </c>
@@ -37242,7 +37248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1560" s="1">
         <v>353</v>
       </c>
@@ -37265,7 +37271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1561" s="1">
         <v>442</v>
       </c>
@@ -37288,7 +37294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1562" s="1">
         <v>531</v>
       </c>
@@ -37311,7 +37317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1563" s="1">
         <v>624</v>
       </c>
@@ -37334,7 +37340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1564" s="1">
         <v>721</v>
       </c>
@@ -37357,7 +37363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1565" s="1">
         <v>811</v>
       </c>
@@ -37380,7 +37386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1566" s="1">
         <v>906</v>
       </c>
@@ -37403,7 +37409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1567" s="1">
         <v>1001</v>
       </c>
@@ -37426,7 +37432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1568" s="1">
         <v>1091</v>
       </c>
@@ -37449,7 +37455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1569" s="1">
         <v>1180</v>
       </c>
@@ -37472,7 +37478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1570" s="1">
         <v>1269</v>
       </c>
@@ -37495,7 +37501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1571" s="1">
         <v>1358</v>
       </c>
@@ -37518,7 +37524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1572" s="1">
         <v>1453</v>
       </c>
@@ -37541,7 +37547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1573" s="1">
         <v>1536</v>
       </c>
@@ -37564,7 +37570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1574" s="1">
         <v>1626</v>
       </c>
@@ -37587,7 +37593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1575" s="1">
         <v>1715</v>
       </c>
@@ -37610,7 +37616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1576" s="1">
         <v>1804</v>
       </c>
@@ -37633,7 +37639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
         <v>1893</v>
       </c>
@@ -37656,7 +37662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
         <v>1982</v>
       </c>
@@ -37679,7 +37685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
         <v>2070</v>
       </c>
@@ -37702,7 +37708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
         <v>2163</v>
       </c>
@@ -37725,7 +37731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1581" s="1">
         <v>2256</v>
       </c>
@@ -37748,7 +37754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1582" s="1">
         <v>2350</v>
       </c>
@@ -37771,7 +37777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1583" s="1">
         <v>2444</v>
       </c>
@@ -37794,7 +37800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1584" s="1">
         <v>2538</v>
       </c>
@@ -37817,7 +37823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1585" s="1">
         <v>2632</v>
       </c>
@@ -37840,7 +37846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
         <v>2720</v>
       </c>
@@ -37863,7 +37869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
         <v>2813</v>
       </c>
@@ -37886,7 +37892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
         <v>2911</v>
       </c>
@@ -37909,7 +37915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1589" s="1">
         <v>3006</v>
       </c>
@@ -37932,7 +37938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
         <v>3095</v>
       </c>
@@ -37955,7 +37961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
         <v>3183</v>
       </c>
@@ -37978,7 +37984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
         <v>3272</v>
       </c>
@@ -38001,7 +38007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
         <v>3363</v>
       </c>
@@ -39059,7 +39065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
         <v>16</v>
       </c>
@@ -39197,7 +39203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1645" s="1">
         <v>88</v>
       </c>
@@ -39220,7 +39226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1646" s="1">
         <v>89</v>
       </c>
@@ -39404,7 +39410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1654" s="1">
         <v>359</v>
       </c>
@@ -39427,7 +39433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1655" s="1">
         <v>360</v>
       </c>
@@ -39450,7 +39456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1656" s="1">
         <v>449</v>
       </c>
@@ -39473,7 +39479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1657" s="1">
         <v>450</v>
       </c>
@@ -39496,7 +39502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1658" s="1">
         <v>537</v>
       </c>
@@ -39519,7 +39525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1659" s="1">
         <v>538</v>
       </c>
@@ -39542,7 +39548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1660" s="1">
         <v>633</v>
       </c>
@@ -39565,7 +39571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1661" s="1">
         <v>634</v>
       </c>
@@ -39588,7 +39594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1662" s="1">
         <v>635</v>
       </c>
@@ -39611,7 +39617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1663" s="1">
         <v>636</v>
       </c>
@@ -39634,7 +39640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1664" s="1">
         <v>727</v>
       </c>
@@ -39657,7 +39663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1665" s="1">
         <v>728</v>
       </c>
@@ -39680,7 +39686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1666" s="1">
         <v>818</v>
       </c>
@@ -39703,7 +39709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1667" s="1">
         <v>819</v>
       </c>
@@ -39726,7 +39732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1668" s="1">
         <v>914</v>
       </c>
@@ -39749,7 +39755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1669" s="1">
         <v>915</v>
       </c>
@@ -39772,7 +39778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1670" s="1">
         <v>916</v>
       </c>
@@ -39795,7 +39801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1671" s="1">
         <v>1008</v>
       </c>
@@ -39818,7 +39824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1672" s="1">
         <v>1009</v>
       </c>
@@ -39841,7 +39847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1673" s="1">
         <v>1097</v>
       </c>
@@ -39864,7 +39870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1674" s="1">
         <v>1098</v>
       </c>
@@ -39887,7 +39893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
         <v>1186</v>
       </c>
@@ -39910,7 +39916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
         <v>1187</v>
       </c>
@@ -39933,7 +39939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
         <v>1275</v>
       </c>
@@ -39956,7 +39962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
         <v>1276</v>
       </c>
@@ -39979,7 +39985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1679" s="1">
         <v>1364</v>
       </c>
@@ -40002,7 +40008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1680" s="1">
         <v>1365</v>
       </c>
@@ -40025,7 +40031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1681" s="1">
         <v>1460</v>
       </c>
@@ -40048,7 +40054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1682" s="1">
         <v>1461</v>
       </c>
@@ -40071,7 +40077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1683" s="1">
         <v>1462</v>
       </c>
@@ -40094,7 +40100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1684" s="1">
         <v>1542</v>
       </c>
@@ -40117,7 +40123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1685" s="1">
         <v>1543</v>
       </c>
@@ -40140,7 +40146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1686" s="1">
         <v>1544</v>
       </c>
@@ -40163,7 +40169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1687" s="1">
         <v>1632</v>
       </c>
@@ -40186,7 +40192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1688" s="1">
         <v>1633</v>
       </c>
@@ -40209,7 +40215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1689" s="1">
         <v>1721</v>
       </c>
@@ -40232,7 +40238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1690" s="1">
         <v>1722</v>
       </c>
@@ -40255,7 +40261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1691" s="1">
         <v>1810</v>
       </c>
@@ -40278,7 +40284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1692" s="1">
         <v>1811</v>
       </c>
@@ -40301,7 +40307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1693" s="1">
         <v>1899</v>
       </c>
@@ -40324,7 +40330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1694" s="1">
         <v>1900</v>
       </c>
@@ -40347,7 +40353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1695" s="1">
         <v>1988</v>
       </c>
@@ -40370,7 +40376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1696" s="1">
         <v>1989</v>
       </c>
@@ -40393,7 +40399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1697" s="1">
         <v>2076</v>
       </c>
@@ -40416,7 +40422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1698" s="1">
         <v>2077</v>
       </c>
@@ -40439,7 +40445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
         <v>2169</v>
       </c>
@@ -40462,7 +40468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
         <v>2170</v>
       </c>
@@ -40485,7 +40491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1701" s="1">
         <v>2171</v>
       </c>
@@ -40508,7 +40514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1702" s="1">
         <v>2262</v>
       </c>
@@ -40531,7 +40537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1703" s="1">
         <v>2263</v>
       </c>
@@ -40554,7 +40560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1704" s="1">
         <v>2358</v>
       </c>
@@ -40577,7 +40583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1705" s="1">
         <v>2359</v>
       </c>
@@ -40600,7 +40606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1706" s="1">
         <v>2360</v>
       </c>
@@ -40623,7 +40629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1707" s="1">
         <v>2450</v>
       </c>
@@ -40646,7 +40652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1708" s="1">
         <v>2451</v>
       </c>
@@ -40669,7 +40675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1709" s="1">
         <v>2546</v>
       </c>
@@ -40692,7 +40698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1710" s="1">
         <v>2547</v>
       </c>
@@ -40715,7 +40721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1711" s="1">
         <v>2548</v>
       </c>
@@ -40738,7 +40744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1712" s="1">
         <v>2638</v>
       </c>
@@ -40761,7 +40767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1713" s="1">
         <v>2639</v>
       </c>
@@ -40784,7 +40790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1714" s="1">
         <v>2726</v>
       </c>
@@ -40807,7 +40813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1715" s="1">
         <v>2727</v>
       </c>
@@ -40830,7 +40836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1716" s="1">
         <v>2821</v>
       </c>
@@ -40853,7 +40859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1717" s="1">
         <v>2822</v>
       </c>
@@ -40876,7 +40882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1718" s="1">
         <v>2823</v>
       </c>
@@ -40899,7 +40905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1719" s="1">
         <v>2920</v>
       </c>
@@ -40922,7 +40928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1720" s="1">
         <v>2921</v>
       </c>
@@ -40945,7 +40951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1721" s="1">
         <v>2922</v>
       </c>
@@ -40968,7 +40974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1722" s="1">
         <v>3012</v>
       </c>
@@ -40991,7 +40997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1723" s="1">
         <v>3013</v>
       </c>
@@ -41014,7 +41020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
         <v>3101</v>
       </c>
@@ -41037,7 +41043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
         <v>3102</v>
       </c>
@@ -41060,7 +41066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
         <v>3190</v>
       </c>
@@ -41083,7 +41089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
         <v>3191</v>
       </c>
@@ -41106,7 +41112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
         <v>3278</v>
       </c>
@@ -41129,7 +41135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
         <v>3279</v>
       </c>
@@ -41152,7 +41158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
         <v>3370</v>
       </c>
@@ -41175,7 +41181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
         <v>3371</v>
       </c>
@@ -41198,7 +41204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
         <v>3372</v>
       </c>
@@ -63025,7 +63031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2681" s="1">
         <v>44</v>
       </c>
@@ -63048,7 +63054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2682" s="1">
         <v>118</v>
       </c>
@@ -63117,7 +63123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2685" s="1">
         <v>389</v>
       </c>
@@ -63140,7 +63146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2686" s="1">
         <v>479</v>
       </c>
@@ -63163,7 +63169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2687" s="1">
         <v>567</v>
       </c>
@@ -63186,7 +63192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2688" s="1">
         <v>668</v>
       </c>
@@ -63209,7 +63215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2689" s="1">
         <v>757</v>
       </c>
@@ -63232,7 +63238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2690" s="1">
         <v>849</v>
       </c>
@@ -63255,7 +63261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2691" s="1">
         <v>948</v>
       </c>
@@ -63278,7 +63284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2692" s="1">
         <v>1038</v>
       </c>
@@ -63301,7 +63307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2693" s="1">
         <v>1127</v>
       </c>
@@ -63324,7 +63330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2694" s="1">
         <v>1216</v>
       </c>
@@ -63347,7 +63353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2695" s="1">
         <v>1305</v>
       </c>
@@ -63370,7 +63376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2696" s="1">
         <v>1394</v>
       </c>
@@ -63393,7 +63399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2697" s="1">
         <v>1493</v>
       </c>
@@ -63416,7 +63422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2698" s="1">
         <v>1573</v>
       </c>
@@ -63439,7 +63445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2699" s="1">
         <v>1662</v>
       </c>
@@ -63462,7 +63468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2700" s="1">
         <v>1751</v>
       </c>
@@ -63485,7 +63491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2701" s="1">
         <v>1840</v>
       </c>
@@ -63508,7 +63514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2702" s="1">
         <v>1929</v>
       </c>
@@ -63531,7 +63537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2703" s="1">
         <v>2018</v>
       </c>
@@ -63554,7 +63560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2704" s="1">
         <v>2106</v>
       </c>
@@ -63577,7 +63583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2705" s="1">
         <v>2203</v>
       </c>
@@ -63600,7 +63606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2706" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2706" s="1">
         <v>2292</v>
       </c>
@@ -63623,7 +63629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2707" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2707" s="1">
         <v>2392</v>
       </c>
@@ -63646,7 +63652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2708" s="1">
         <v>2480</v>
       </c>
@@ -63669,7 +63675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2709" s="1">
         <v>2580</v>
       </c>
@@ -63692,7 +63698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2710" s="1">
         <v>2668</v>
       </c>
@@ -63715,7 +63721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2711" s="1">
         <v>2756</v>
       </c>
@@ -63738,7 +63744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2712" s="1">
         <v>2854</v>
       </c>
@@ -63761,7 +63767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2713" s="1">
         <v>2954</v>
       </c>
@@ -63784,7 +63790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2714" s="1">
         <v>3043</v>
       </c>
@@ -63807,7 +63813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2715" s="1">
         <v>3131</v>
       </c>
@@ -63830,7 +63836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2716" s="1">
         <v>3220</v>
       </c>
@@ -63853,7 +63859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2717" s="1">
         <v>3308</v>
       </c>
@@ -63876,7 +63882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2718" s="1">
         <v>3402</v>
       </c>
@@ -72731,7 +72737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3103" s="1">
         <v>58</v>
       </c>
@@ -72754,7 +72760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3104" s="1">
         <v>129</v>
       </c>
@@ -72823,7 +72829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3107" s="1">
         <v>400</v>
       </c>
@@ -72846,7 +72852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3108" s="1">
         <v>490</v>
       </c>
@@ -72869,7 +72875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3109" s="1">
         <v>578</v>
       </c>
@@ -72892,7 +72898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3110" s="1">
         <v>679</v>
       </c>
@@ -72915,7 +72921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3111" s="1">
         <v>768</v>
       </c>
@@ -72938,7 +72944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3112" s="1">
         <v>860</v>
       </c>
@@ -72961,7 +72967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3113" s="1">
         <v>959</v>
       </c>
@@ -72984,7 +72990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3114" s="1">
         <v>1049</v>
       </c>
@@ -73007,7 +73013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3115" s="1">
         <v>1138</v>
       </c>
@@ -73030,7 +73036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3116" s="1">
         <v>1227</v>
       </c>
@@ -73053,7 +73059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3117" s="1">
         <v>1316</v>
       </c>
@@ -73076,7 +73082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3118" s="1">
         <v>1405</v>
       </c>
@@ -73099,7 +73105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3119" s="1">
         <v>1504</v>
       </c>
@@ -73122,7 +73128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3120" s="1">
         <v>1584</v>
       </c>
@@ -73145,7 +73151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3121" s="1">
         <v>1673</v>
       </c>
@@ -73168,7 +73174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3122" s="1">
         <v>1762</v>
       </c>
@@ -73191,7 +73197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3123" s="1">
         <v>1851</v>
       </c>
@@ -73214,7 +73220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3124" s="1">
         <v>1940</v>
       </c>
@@ -73237,7 +73243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3125" s="1">
         <v>2029</v>
       </c>
@@ -73260,7 +73266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3126" s="1">
         <v>2117</v>
       </c>
@@ -73283,7 +73289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3127" s="1">
         <v>2214</v>
       </c>
@@ -73306,7 +73312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3128" s="1">
         <v>2303</v>
       </c>
@@ -73329,7 +73335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3129" s="1">
         <v>2403</v>
       </c>
@@ -73352,7 +73358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3130" s="1">
         <v>2491</v>
       </c>
@@ -73375,7 +73381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3131" s="1">
         <v>2591</v>
       </c>
@@ -73398,7 +73404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3132" s="1">
         <v>2679</v>
       </c>
@@ -73421,7 +73427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3133" s="1">
         <v>2767</v>
       </c>
@@ -73444,7 +73450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3134" s="1">
         <v>2865</v>
       </c>
@@ -73467,7 +73473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3135" s="1">
         <v>2965</v>
       </c>
@@ -73490,7 +73496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3136" s="1">
         <v>3054</v>
       </c>
@@ -73513,7 +73519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3137" s="1">
         <v>3142</v>
       </c>
@@ -73536,7 +73542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3138" s="1">
         <v>3231</v>
       </c>
@@ -73559,7 +73565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3139" s="1">
         <v>3319</v>
       </c>
@@ -73582,7 +73588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3140" s="1">
         <v>3413</v>
       </c>
